--- a/주요구성자산2.xlsx
+++ b/주요구성자산2.xlsx
@@ -488,22 +488,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=373220</t>
+          <t>https://finance.naver.com/item/main.naver?code=373220</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>400,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-0.25%</t>
         </is>
       </c>
     </row>
@@ -525,22 +525,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=051910</t>
+          <t>https://finance.naver.com/item/main.naver?code=051910</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>268,500</t>
+          <t>267,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>1,500</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+0.37%</t>
+          <t>-0.56%</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=005490</t>
+          <t>https://finance.naver.com/item/main.naver?code=005490</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>271,000</t>
+          <t>271,500</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3,500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.28%</t>
+          <t>+0.18%</t>
         </is>
       </c>
     </row>
@@ -599,22 +599,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=006400</t>
+          <t>https://finance.naver.com/item/main.naver?code=006400</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>260,500</t>
+          <t>263,500</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5,500</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+2.16%</t>
+          <t>+1.15%</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=247540</t>
+          <t>https://finance.naver.com/item/main.naver?code=247540</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>131,000</t>
+          <t>130,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3,900</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.89%</t>
+          <t>-0.76%</t>
         </is>
       </c>
     </row>
@@ -673,22 +673,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=003670</t>
+          <t>https://finance.naver.com/item/main.naver?code=003670</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>166,800</t>
+          <t>166,700</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6,200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.58%</t>
+          <t>-0.06%</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=096770</t>
+          <t>https://finance.naver.com/item/main.naver?code=096770</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>120,500</t>
+          <t>119,500</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+2.38%</t>
+          <t>-0.83%</t>
         </is>
       </c>
     </row>
@@ -747,22 +747,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=086520</t>
+          <t>https://finance.naver.com/item/main.naver?code=086520</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72,200</t>
+          <t>71,300</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>900</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+1.12%</t>
+          <t>-1.25%</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=450080</t>
+          <t>https://finance.naver.com/item/main.naver?code=450080</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80,600</t>
+          <t>81,100</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+3.87%</t>
+          <t>+0.62%</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://finance.naver.comhttps://finance.naver.com/item/main.naver?code=011790</t>
+          <t>https://finance.naver.com/item/main.naver?code=011790</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>100,300</t>
+          <t>109,500</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4,800</t>
+          <t>9,200</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-4.57%</t>
+          <t>+9.17%</t>
         </is>
       </c>
     </row>
